--- a/RiskEval test/Test/New/20160709/Test_Spec.xlsx
+++ b/RiskEval test/Test/New/20160709/Test_Spec.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\iSabaya\RiskEval\RiskEval test\Test\New-20160709\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\iSabaya\RiskEval\RiskEval test\Test\New\20160709\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8112"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8112" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ภาพรวม" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="จัดทำงบประมาณ" sheetId="10" r:id="rId10"/>
     <sheet name="ประเมินงบประมาณ" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1361,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -1433,7 +1433,7 @@
   <dimension ref="A2:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C15"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1534,8 +1534,8 @@
   </sheetPr>
   <dimension ref="A2:H107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2247,7 +2247,7 @@
   <dimension ref="A2:B16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2355,8 +2355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C51"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2389,7 +2389,7 @@
       <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2716,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2888,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3061,7 +3061,7 @@
   <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3231,7 +3231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/RiskEval test/Test/New/20160709/Test_Spec.xlsx
+++ b/RiskEval test/Test/New/20160709/Test_Spec.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8112" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ภาพรวม" sheetId="1" r:id="rId1"/>
@@ -655,7 +655,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,6 +678,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -696,18 +704,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1362,16 +1373,16 @@
   <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1379,37 +1390,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -1421,6 +1432,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1432,26 +1447,26 @@
   </sheetPr>
   <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1459,18 +1474,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>42</v>
       </c>
@@ -1478,7 +1493,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1486,37 +1501,37 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>124</v>
       </c>
@@ -1534,26 +1549,26 @@
   </sheetPr>
   <dimension ref="A2:H107"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1561,7 +1576,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1572,7 +1587,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>42</v>
       </c>
@@ -1580,7 +1595,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1588,27 +1603,27 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -1616,7 +1631,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1624,7 +1639,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1635,7 +1650,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>42</v>
       </c>
@@ -1643,7 +1658,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1651,27 +1666,27 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -1679,7 +1694,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1687,7 +1702,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1698,7 +1713,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -1706,7 +1721,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1714,32 +1729,32 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -1747,7 +1762,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1758,7 +1773,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>42</v>
       </c>
@@ -1766,7 +1781,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -1774,47 +1789,47 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -1822,7 +1837,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -1833,7 +1848,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>42</v>
       </c>
@@ -1841,7 +1856,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1849,12 +1864,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -1862,7 +1877,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -1873,7 +1888,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>42</v>
       </c>
@@ -1881,7 +1896,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1889,12 +1904,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -1902,7 +1917,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -1913,7 +1928,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>42</v>
       </c>
@@ -1921,7 +1936,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -1929,12 +1944,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -1942,7 +1957,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -1953,7 +1968,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>42</v>
       </c>
@@ -1961,7 +1976,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -1969,12 +1984,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -1982,7 +1997,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -1993,7 +2008,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>42</v>
       </c>
@@ -2001,7 +2016,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -2009,12 +2024,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>21</v>
       </c>
@@ -2023,7 +2038,7 @@
       </c>
       <c r="C78" s="4"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>40</v>
       </c>
@@ -2034,7 +2049,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
         <v>42</v>
@@ -2043,7 +2058,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>17</v>
       </c>
@@ -2052,12 +2067,12 @@
       </c>
       <c r="C81" s="4"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>21</v>
       </c>
@@ -2066,7 +2081,7 @@
       </c>
       <c r="C84" s="4"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>40</v>
       </c>
@@ -2077,7 +2092,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>42</v>
@@ -2086,7 +2101,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>17</v>
       </c>
@@ -2095,12 +2110,12 @@
       </c>
       <c r="C87" s="4"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>21</v>
       </c>
@@ -2108,7 +2123,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>40</v>
       </c>
@@ -2119,7 +2134,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
         <v>42</v>
@@ -2128,7 +2143,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>14</v>
       </c>
@@ -2137,40 +2152,40 @@
       </c>
       <c r="C93" s="4"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="5" t="s">
         <v>122</v>
       </c>
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C96" s="4"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C97" s="4"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>21</v>
       </c>
@@ -2179,7 +2194,7 @@
       </c>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>40</v>
       </c>
@@ -2190,7 +2205,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
         <v>42</v>
@@ -2199,7 +2214,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>14</v>
       </c>
@@ -2208,28 +2223,28 @@
       </c>
       <c r="C103" s="4"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C104" s="4"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="5" t="s">
         <v>122</v>
       </c>
       <c r="C105" s="4"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
         <v>124</v>
@@ -2246,26 +2261,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B16"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2273,7 +2288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2281,12 +2296,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2294,7 +2309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2302,12 +2317,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2315,7 +2330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2323,12 +2338,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2336,7 +2351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2355,26 +2370,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2382,7 +2397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2393,7 +2408,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>42</v>
       </c>
@@ -2401,7 +2416,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2409,7 +2424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2417,12 +2432,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2430,7 +2445,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2441,7 +2456,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>42</v>
       </c>
@@ -2449,7 +2464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2457,7 +2472,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2465,12 +2480,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2478,7 +2493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2489,7 +2504,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>42</v>
       </c>
@@ -2497,7 +2512,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2505,7 +2520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2513,12 +2528,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2526,7 +2541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2537,7 +2552,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>42</v>
       </c>
@@ -2545,7 +2560,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -2553,7 +2568,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2561,12 +2576,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -2574,7 +2589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2585,7 +2600,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>42</v>
       </c>
@@ -2593,7 +2608,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2601,7 +2616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2609,12 +2624,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2622,7 +2637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2633,7 +2648,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>42</v>
       </c>
@@ -2641,7 +2656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -2649,7 +2664,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2657,12 +2672,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -2670,7 +2685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -2681,7 +2696,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>42</v>
       </c>
@@ -2689,7 +2704,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2697,7 +2712,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -2716,16 +2731,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -2733,12 +2748,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2746,18 +2761,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>42</v>
       </c>
@@ -2765,7 +2780,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2773,7 +2788,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2781,12 +2796,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2794,7 +2809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2805,7 +2820,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>42</v>
       </c>
@@ -2813,7 +2828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2821,7 +2836,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2829,12 +2844,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2842,7 +2857,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2853,7 +2868,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>42</v>
       </c>
@@ -2861,7 +2876,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2869,7 +2884,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2888,16 +2903,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -2905,12 +2920,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2918,7 +2933,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2929,7 +2944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>42</v>
       </c>
@@ -2937,7 +2952,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2945,7 +2960,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2953,12 +2968,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2966,7 +2981,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2977,7 +2992,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>42</v>
       </c>
@@ -2985,7 +3000,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2993,7 +3008,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3001,12 +3016,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3014,7 +3029,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3025,7 +3040,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>42</v>
       </c>
@@ -3033,7 +3048,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -3041,7 +3056,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -3061,15 +3076,15 @@
   <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -3077,12 +3092,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3090,7 +3105,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3101,7 +3116,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>42</v>
       </c>
@@ -3109,7 +3124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3117,7 +3132,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3125,12 +3140,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3138,7 +3153,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -3149,7 +3164,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>42</v>
       </c>
@@ -3157,7 +3172,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3165,7 +3180,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3173,12 +3188,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3186,7 +3201,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3197,7 +3212,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>42</v>
       </c>
@@ -3205,7 +3220,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -3213,7 +3228,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -3232,25 +3247,25 @@
   <dimension ref="A2:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3258,7 +3273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3269,7 +3284,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>42</v>
       </c>
@@ -3277,7 +3292,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3285,7 +3300,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3293,12 +3308,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3306,7 +3321,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -3317,7 +3332,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>42</v>
       </c>
@@ -3325,7 +3340,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3333,7 +3348,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3353,44 +3368,44 @@
   <dimension ref="A2:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>42</v>
       </c>
@@ -3398,7 +3413,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3406,7 +3421,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3414,12 +3429,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3427,7 +3442,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -3438,7 +3453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>42</v>
       </c>
@@ -3446,7 +3461,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3454,7 +3469,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3463,9 +3478,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3473,26 +3491,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3500,7 +3518,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3511,7 +3529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>42</v>
       </c>
@@ -3519,7 +3537,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3527,7 +3545,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3535,12 +3553,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -3548,7 +3566,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -3559,7 +3577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>42</v>
       </c>
@@ -3567,7 +3585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -3575,32 +3593,32 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -3608,22 +3626,22 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -3634,7 +3652,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>42</v>
       </c>
@@ -3642,7 +3660,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -3650,22 +3668,22 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>108</v>
       </c>
